--- a/SchedulingData/dynamic15/pso/scheduling2_8.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_8.xlsx
@@ -466,55 +466,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>252.1</v>
+        <v>250.18</v>
       </c>
       <c r="D2" t="n">
-        <v>286.3</v>
+        <v>293.98</v>
       </c>
       <c r="E2" t="n">
-        <v>12.52</v>
+        <v>10.732</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>216.3</v>
+        <v>208.2</v>
       </c>
       <c r="D3" t="n">
-        <v>262.42</v>
+        <v>279.1</v>
       </c>
       <c r="E3" t="n">
-        <v>12.428</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>262.42</v>
+        <v>293.98</v>
       </c>
       <c r="D4" t="n">
-        <v>296.16</v>
+        <v>328.98</v>
       </c>
       <c r="E4" t="n">
-        <v>10.184</v>
+        <v>8.372</v>
       </c>
     </row>
     <row r="5">
@@ -523,283 +523,283 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>296.16</v>
+        <v>248.38</v>
       </c>
       <c r="D5" t="n">
-        <v>347.92</v>
+        <v>314.3</v>
       </c>
       <c r="E5" t="n">
-        <v>6.648</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>201.02</v>
+        <v>205.3</v>
       </c>
       <c r="D6" t="n">
-        <v>248.12</v>
+        <v>262.68</v>
       </c>
       <c r="E6" t="n">
-        <v>12.888</v>
+        <v>15.272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>254.34</v>
+        <v>262.68</v>
       </c>
       <c r="D7" t="n">
-        <v>295.4</v>
+        <v>321.08</v>
       </c>
       <c r="E7" t="n">
-        <v>13.06</v>
+        <v>11.072</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>250.76</v>
+        <v>251.82</v>
       </c>
       <c r="D8" t="n">
-        <v>310.18</v>
+        <v>317.88</v>
       </c>
       <c r="E8" t="n">
-        <v>12.972</v>
+        <v>13.832</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>286.3</v>
+        <v>235.44</v>
       </c>
       <c r="D9" t="n">
-        <v>346.3</v>
+        <v>291.24</v>
       </c>
       <c r="E9" t="n">
-        <v>9.140000000000001</v>
+        <v>10.556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>249.48</v>
+        <v>321.08</v>
       </c>
       <c r="D10" t="n">
-        <v>312.68</v>
+        <v>390.32</v>
       </c>
       <c r="E10" t="n">
-        <v>10.332</v>
+        <v>7.728</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>347.92</v>
+        <v>279.1</v>
       </c>
       <c r="D11" t="n">
-        <v>397.38</v>
+        <v>319.3</v>
       </c>
       <c r="E11" t="n">
-        <v>3.832</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>310.18</v>
+        <v>319.3</v>
       </c>
       <c r="D12" t="n">
-        <v>384.92</v>
+        <v>366.9</v>
       </c>
       <c r="E12" t="n">
-        <v>9.628</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>295.4</v>
+        <v>317.88</v>
       </c>
       <c r="D13" t="n">
-        <v>367.8</v>
+        <v>367.34</v>
       </c>
       <c r="E13" t="n">
-        <v>9.42</v>
+        <v>11.016</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>367.8</v>
+        <v>367.34</v>
       </c>
       <c r="D14" t="n">
-        <v>434.32</v>
+        <v>433.2</v>
       </c>
       <c r="E14" t="n">
-        <v>5.388</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>384.92</v>
+        <v>314.3</v>
       </c>
       <c r="D15" t="n">
-        <v>442</v>
+        <v>365.64</v>
       </c>
       <c r="E15" t="n">
-        <v>6.56</v>
+        <v>8.236000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>312.68</v>
+        <v>390.32</v>
       </c>
       <c r="D16" t="n">
-        <v>376.2</v>
+        <v>466.96</v>
       </c>
       <c r="E16" t="n">
-        <v>7.12</v>
+        <v>4.144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>434.32</v>
+        <v>291.24</v>
       </c>
       <c r="D17" t="n">
-        <v>504.02</v>
+        <v>357.1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.528</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>504.02</v>
+        <v>365.64</v>
       </c>
       <c r="D18" t="n">
-        <v>584.86</v>
+        <v>413.66</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>5.064</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>346.3</v>
+        <v>466.96</v>
       </c>
       <c r="D19" t="n">
-        <v>404.7</v>
+        <v>541.96</v>
       </c>
       <c r="E19" t="n">
-        <v>6.42</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="20">
@@ -808,55 +808,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>442</v>
+        <v>541.96</v>
       </c>
       <c r="D20" t="n">
-        <v>502.66</v>
+        <v>607.51</v>
       </c>
       <c r="E20" t="n">
-        <v>3.584</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>376.2</v>
+        <v>328.98</v>
       </c>
       <c r="D21" t="n">
-        <v>440.72</v>
+        <v>377.4</v>
       </c>
       <c r="E21" t="n">
-        <v>4.788</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>397.38</v>
+        <v>357.1</v>
       </c>
       <c r="D22" t="n">
-        <v>471.42</v>
+        <v>401.98</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>3.732</v>
       </c>
     </row>
     <row r="23">
@@ -865,169 +865,169 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>471.42</v>
+        <v>413.66</v>
       </c>
       <c r="D23" t="n">
-        <v>521.8</v>
+        <v>486.26</v>
       </c>
       <c r="E23" t="n">
-        <v>26.152</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>584.86</v>
+        <v>486.26</v>
       </c>
       <c r="D24" t="n">
-        <v>630.08</v>
+        <v>584.71</v>
       </c>
       <c r="E24" t="n">
-        <v>27.668</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>404.7</v>
+        <v>433.2</v>
       </c>
       <c r="D25" t="n">
-        <v>455.6</v>
+        <v>514.26</v>
       </c>
       <c r="E25" t="n">
-        <v>2.46</v>
+        <v>3.564</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>248.12</v>
+        <v>366.9</v>
       </c>
       <c r="D26" t="n">
-        <v>310.74</v>
+        <v>404.98</v>
       </c>
       <c r="E26" t="n">
-        <v>9.715999999999999</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>310.74</v>
+        <v>404.98</v>
       </c>
       <c r="D27" t="n">
-        <v>369.06</v>
+        <v>505.1</v>
       </c>
       <c r="E27" t="n">
-        <v>5.504</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>502.66</v>
+        <v>505.1</v>
       </c>
       <c r="D28" t="n">
-        <v>565.36</v>
+        <v>565.4</v>
       </c>
       <c r="E28" t="n">
-        <v>0.404</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>565.36</v>
+        <v>584.71</v>
       </c>
       <c r="D29" t="n">
-        <v>641.55</v>
+        <v>653.87</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>25.744</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>521.8</v>
+        <v>565.4</v>
       </c>
       <c r="D30" t="n">
-        <v>610.52</v>
+        <v>600.02</v>
       </c>
       <c r="E30" t="n">
-        <v>22.36</v>
+        <v>24.808</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>455.6</v>
+        <v>607.51</v>
       </c>
       <c r="D31" t="n">
-        <v>528.1</v>
+        <v>656.3099999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="32">
@@ -1036,36 +1036,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>528.1</v>
+        <v>377.4</v>
       </c>
       <c r="D32" t="n">
-        <v>638.8</v>
+        <v>446.52</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>369.06</v>
+        <v>446.52</v>
       </c>
       <c r="D33" t="n">
-        <v>420.4</v>
+        <v>526.62</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>440.72</v>
+        <v>401.98</v>
       </c>
       <c r="D34" t="n">
-        <v>508.44</v>
+        <v>453.04</v>
       </c>
       <c r="E34" t="n">
-        <v>1.616</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="35">
@@ -1093,14 +1093,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>508.44</v>
+        <v>453.04</v>
       </c>
       <c r="D35" t="n">
-        <v>572.21</v>
+        <v>554.13</v>
       </c>
       <c r="E35" t="n">
         <v>30</v>
@@ -1108,78 +1108,78 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>610.52</v>
+        <v>526.62</v>
       </c>
       <c r="D36" t="n">
-        <v>666.48</v>
+        <v>561.3200000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>18.384</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>420.4</v>
+        <v>656.3099999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>508</v>
+        <v>690.9299999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>24.488</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>508</v>
+        <v>561.3200000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>580.24</v>
+        <v>622.0599999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>26.416</v>
+        <v>24.756</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>572.21</v>
+        <v>622.0599999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>639.29</v>
+        <v>679.66</v>
       </c>
       <c r="E39" t="n">
-        <v>26.472</v>
+        <v>21.116</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>580.24</v>
+        <v>514.26</v>
       </c>
       <c r="D40" t="n">
-        <v>642.8200000000001</v>
+        <v>582.0599999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>22.768</v>
+        <v>1.404</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>639.29</v>
+        <v>582.0599999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>709.83</v>
+        <v>690.55</v>
       </c>
       <c r="E41" t="n">
-        <v>23.508</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -1226,93 +1226,93 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>630.08</v>
+        <v>600.02</v>
       </c>
       <c r="D42" t="n">
-        <v>685.9400000000001</v>
+        <v>649.08</v>
       </c>
       <c r="E42" t="n">
-        <v>24.192</v>
+        <v>21.532</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>638.8</v>
+        <v>653.87</v>
       </c>
       <c r="D43" t="n">
-        <v>708.78</v>
+        <v>712.71</v>
       </c>
       <c r="E43" t="n">
-        <v>26.152</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>641.55</v>
+        <v>679.66</v>
       </c>
       <c r="D44" t="n">
-        <v>701.85</v>
+        <v>721.5</v>
       </c>
       <c r="E44" t="n">
-        <v>27.14</v>
+        <v>18.572</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>701.85</v>
+        <v>554.13</v>
       </c>
       <c r="D45" t="n">
-        <v>748.39</v>
+        <v>596.8099999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>24.596</v>
+        <v>26.932</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>685.9400000000001</v>
+        <v>596.8099999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>733.64</v>
+        <v>668.29</v>
       </c>
       <c r="E46" t="n">
-        <v>22.032</v>
+        <v>23.404</v>
       </c>
     </row>
     <row r="47">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>642.8200000000001</v>
+        <v>690.55</v>
       </c>
       <c r="D47" t="n">
-        <v>710.22</v>
+        <v>729.79</v>
       </c>
       <c r="E47" t="n">
-        <v>19.128</v>
+        <v>27.756</v>
       </c>
     </row>
     <row r="48">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>709.83</v>
+        <v>668.29</v>
       </c>
       <c r="D48" t="n">
-        <v>770.5700000000001</v>
+        <v>738.83</v>
       </c>
       <c r="E48" t="n">
-        <v>20.544</v>
+        <v>20.44</v>
       </c>
     </row>
   </sheetData>
